--- a/WebUI_ops/testdata/machineroominfo.xlsx
+++ b/WebUI_ops/testdata/machineroominfo.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140"/>
+    <workbookView windowWidth="28800" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="新建机房信息" sheetId="1" r:id="rId1"/>
+    <sheet name="编辑机房信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t>case_id</t>
   </si>
@@ -28,13 +29,103 @@
     <t>expect</t>
   </si>
   <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>testresult</t>
+  </si>
+  <si>
+    <t>add-machineroom-001</t>
+  </si>
+  <si>
+    <t>全部字段都正常填写</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"test0001","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","check":True}</t>
+  </si>
+  <si>
+    <t>{"success_msg":"新建机房成功1"}</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>add-machineroom-002</t>
+  </si>
+  <si>
+    <t>不勾选算力机是否可调度复选框</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"test0002","address":"太平洋","domain":"https://opttest.arsyun.com","check":False}</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>add-machineroom-003</t>
+  </si>
+  <si>
+    <t>域名为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"test0003","address":"太平洋","domain":"","check":False}</t>
+  </si>
+  <si>
+    <t>{"success_msg":"新建机房成功"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>add-machineroom-004</t>
+  </si>
+  <si>
+    <t>机房名称为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"","address":"太平洋","domain":"https://opttest.arsyun.com","check":False}</t>
+  </si>
+  <si>
+    <t>{"error_msg":"请输入机房名称"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-005</t>
+  </si>
+  <si>
+    <t>机房地址为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"test0005","address":"","domain":"https://opttest.arsyun.com","check":False}</t>
+  </si>
+  <si>
+    <t>{"error_msg":"请输入机房所在地"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-006</t>
+  </si>
+  <si>
+    <t>机房名和地址都为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"","address":"","domain":"https://opttest.arsyun.com","check":False}</t>
+  </si>
+  <si>
+    <t>{"error_msg1":"请输入机房名称","error_msg2":"请输入机房所在地"}</t>
+  </si>
+  <si>
     <t>add-machineroom-007</t>
   </si>
   <si>
     <t>机房名称重复</t>
   </si>
   <si>
-    <t>{"machineroom_name":"超级无敌机房","address":"太阳系地球1号1","domain":"https://opttest.arsyun.com","check":True}</t>
+    <t>{"machineroom_name":"test0001","address":"太阳系地球1号1","domain":"https://opttest.arsyun.com","check":True}</t>
+  </si>
+  <si>
+    <t>{"error_msg":"1062"}</t>
   </si>
   <si>
     <t>add-machineroom-008</t>
@@ -43,64 +134,13 @@
     <t>机房地址重复</t>
   </si>
   <si>
-    <t>{"machineroom_name":"超级无敌机房1","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","check":True}</t>
-  </si>
-  <si>
-    <t>add-machineroom-001</t>
-  </si>
-  <si>
-    <t>全部字段都正常填写</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"超级无敌机房","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","check":True}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"新建机房成功"}</t>
-  </si>
-  <si>
-    <t>add-machineroom-002</t>
-  </si>
-  <si>
-    <t>不勾选算力机是否可调度复选框</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"宇宙超级大大机房","address":"太平洋","domain":"https://opttest.arsyun.com","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-003</t>
-  </si>
-  <si>
-    <t>域名为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"test00001","address":"太平洋","domain":"","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-004</t>
-  </si>
-  <si>
-    <t>机房名称为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"","address":"太平洋","domain":"https://opttest.arsyun.com","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-005</t>
-  </si>
-  <si>
-    <t>机房地址为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"宇宙超级大大机房","address":"","domain":"https://opttest.arsyun.com","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-006</t>
-  </si>
-  <si>
-    <t>机房名和地址都为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"","address":"","domain":"https://opttest.arsyun.com","check":False}</t>
+    <t>{"machineroom_name":"test0004","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","check":True}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-001</t>
+  </si>
+  <si>
+    <t>edit-machineroom-002</t>
   </si>
 </sst>
 </file>
@@ -108,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,23 +162,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,54 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +275,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -245,22 +293,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +315,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,151 +453,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,21 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,8 +527,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +568,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,24 +598,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -571,157 +611,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1042,22 +1086,228 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:6">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B14" sqref="C17 B14"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="66.5" customWidth="1"/>
-    <col min="4" max="4" width="59.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="17" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,102 +1320,171 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="1:3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="27" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:6">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:4">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:6">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:3">
-      <c r="A7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/WebUI_ops/testdata/machineroominfo.xlsx
+++ b/WebUI_ops/testdata/machineroominfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="新建机房信息" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,50 +163,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,9 +236,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,15 +269,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +315,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,25 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,139 +471,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,11 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -626,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1088,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1293,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1361,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1381,7 +1381,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1401,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1421,7 +1421,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -1441,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -1461,7 +1461,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -1481,7 +1481,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
